--- a/analysis/Ramioul/derived_data/Ramioul_lithic_analysis.xlsx
+++ b/analysis/Ramioul/derived_data/Ramioul_lithic_analysis.xlsx
@@ -32,8 +32,8 @@
     <sheet name="S_edge_retouch" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="KM_morpho.type" sheetId="25" state="visible" r:id="rId25"/>
     <sheet name="PS_morpho.type" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="KM_Pradnick.method" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="PS_Pradnick.method" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="KM_Pradnik.method" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="PS_Pradnik.method" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="KM_lateralisation" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="PS_lateralisation" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">site</t>
   </si>
@@ -85,10 +85,10 @@
     <t xml:space="preserve">tip.morphology</t>
   </si>
   <si>
-    <t xml:space="preserve">application.pradnick.method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frequency.application.pradnick.method</t>
+    <t xml:space="preserve">application.Pradnik.method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency.application.Pradnik.method</t>
   </si>
   <si>
     <t xml:space="preserve">type.lateral.sharpening.spall</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">perimeter.basis.back</t>
   </si>
   <si>
-    <t xml:space="preserve">perimeter.arch</t>
+    <t xml:space="preserve">perimeter.distal.posterior.part</t>
   </si>
   <si>
     <t xml:space="preserve">perimeter.active.edge</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">R-006</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick</t>
+    <t xml:space="preserve">Pradnik</t>
   </si>
   <si>
     <t xml:space="preserve">retouched</t>
@@ -268,7 +268,7 @@
     <t xml:space="preserve">R-010</t>
   </si>
   <si>
-    <t xml:space="preserve">Pradnick_scraper</t>
+    <t xml:space="preserve">Pradnik_scraper</t>
   </si>
   <si>
     <t xml:space="preserve">R-011</t>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">R-014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clear_blunting</t>
   </si>
   <si>
     <t xml:space="preserve">broken</t>
@@ -2006,7 +2003,7 @@
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -2015,7 +2012,7 @@
         <v>56</v>
       </c>
       <c r="N15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O15" t="s">
         <v>41</v>
@@ -2025,7 +2022,7 @@
       </c>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S15" t="n">
         <v>48</v>
@@ -2079,7 +2076,7 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -2145,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="AB16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC16" t="s">
         <v>50</v>
@@ -2169,7 +2166,7 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -2192,7 +2189,7 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
         <v>41</v>
@@ -2263,10 +2260,10 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>88</v>
       </c>
       <c r="D18" t="s">
         <v>58</v>
@@ -2349,7 +2346,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -2373,7 +2370,7 @@
         <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>44</v>
@@ -2385,7 +2382,7 @@
         <v>45</v>
       </c>
       <c r="N19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O19" t="s">
         <v>41</v>
@@ -2395,7 +2392,7 @@
       </c>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S19" t="n">
         <v>78</v>
@@ -2425,7 +2422,7 @@
         <v>7</v>
       </c>
       <c r="AB19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC19" t="s">
         <v>50</v>
@@ -2449,7 +2446,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -2491,7 +2488,7 @@
         <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q20"/>
       <c r="R20" t="s">
@@ -2549,10 +2546,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
         <v>37</v>
@@ -2625,7 +2622,7 @@
         <v>15</v>
       </c>
       <c r="AB21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC21" t="s">
         <v>50</v>
@@ -2702,7 +2699,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -2856,7 +2853,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -2870,7 +2867,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -2996,7 +2993,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -3010,7 +3007,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -3024,7 +3021,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -3033,7 +3030,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3094,7 +3091,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -3248,7 +3245,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -3262,7 +3259,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -3271,7 +3268,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3449,7 +3446,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -3467,12 +3464,12 @@
         <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -3495,7 +3492,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -3593,7 +3590,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -3745,7 +3742,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -3762,7 +3759,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -3990,7 +3987,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -4010,7 +4007,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
@@ -4030,7 +4027,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -4090,7 +4087,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -4190,7 +4187,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -4210,7 +4207,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -4287,7 +4284,7 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
@@ -4295,7 +4292,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -4304,7 +4301,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -4466,7 +4463,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -4486,7 +4483,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -4506,7 +4503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -4600,7 +4597,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -4808,7 +4805,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -4828,7 +4825,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -5023,7 +5020,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -5046,7 +5043,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -5069,7 +5066,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5175,7 +5172,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5329,7 +5326,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -5346,24 +5343,24 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5445,7 +5442,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5572,7 +5569,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -5581,12 +5578,12 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -5600,7 +5597,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5768,7 +5765,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -5788,7 +5785,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -5808,7 +5805,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -5879,12 +5876,12 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5972,7 +5969,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -6180,7 +6177,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -6200,7 +6197,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -6416,7 +6413,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6442,7 +6439,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -6468,7 +6465,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -6586,7 +6583,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -6724,7 +6721,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -6738,7 +6735,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -6752,7 +6749,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>

--- a/analysis/Ramioul/derived_data/Ramioul_lithic_analysis.xlsx
+++ b/analysis/Ramioul/derived_data/Ramioul_lithic_analysis.xlsx
@@ -649,7 +649,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2653,61 +2653,73 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0017</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.016</v>
       </c>
     </row>
@@ -2723,47 +2735,56 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.075</v>
       </c>
     </row>
@@ -2779,103 +2800,124 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.029</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.034</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.088</v>
       </c>
     </row>
@@ -2891,145 +2933,175 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3045,61 +3117,73 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3115,47 +3199,56 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3171,103 +3264,124 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3283,233 +3397,263 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
       <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>42</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="G4"/>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
         <v>59</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
       <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
       <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
       <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
         <v>42</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3525,87 +3669,99 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>51</v>
       </c>
-      <c r="F2"/>
       <c r="G2"/>
+      <c r="H2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="F3"/>
       <c r="G3"/>
+      <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>51</v>
       </c>
-      <c r="F4"/>
       <c r="G4"/>
+      <c r="H4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3619,175 +3775,205 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3803,425 +3989,488 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>54</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>27</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>42</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
         <v>50</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>33</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n">
         <v>44</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>27</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
         <v>53</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>31</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
         <v>76</v>
       </c>
-      <c r="E7" t="n">
-        <v>37</v>
-      </c>
       <c r="F7" t="n">
+        <v>37</v>
+      </c>
+      <c r="G7" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="n">
         <v>75</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>43</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="n">
         <v>42</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>28</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="n">
         <v>78</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>31</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="n">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="n">
         <v>106</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>50</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="n">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="n">
         <v>117</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>57</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="n">
         <v>52</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>35</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="n">
         <v>48</v>
       </c>
-      <c r="E14" t="n">
-        <v>37</v>
-      </c>
       <c r="F14" t="n">
+        <v>37</v>
+      </c>
+      <c r="G14" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="n">
         <v>45</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>35</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="n">
         <v>51</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>31</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="n">
         <v>42</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>24</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="n">
         <v>89</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>46</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="n">
         <v>45</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>27</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>83</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="n">
         <v>50</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>42</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>86</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="n">
         <v>107</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>43</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>17</v>
       </c>
     </row>
@@ -4237,73 +4486,85 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>69</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4319,205 +4580,235 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4533,85 +4824,97 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4627,65 +4930,74 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4701,145 +5013,166 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4855,235 +5188,265 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>50</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>33</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>44</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>27</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>53</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>31</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>76</v>
       </c>
-      <c r="F5" t="n">
-        <v>37</v>
-      </c>
       <c r="G5" t="n">
+        <v>37</v>
+      </c>
+      <c r="H5" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>75</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>43</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>42</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>28</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>78</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>31</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>106</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>50</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>117</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>57</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5099,97 +5462,109 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>52</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>35</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>48</v>
       </c>
-      <c r="F3" t="n">
-        <v>37</v>
-      </c>
       <c r="G3" t="n">
+        <v>37</v>
+      </c>
+      <c r="H3" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>45</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>35</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5205,173 +5580,203 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="E4"/>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5387,73 +5792,85 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4"/>
+      <c r="F4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5467,145 +5884,175 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5621,205 +6068,235 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>50</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>33</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>44</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>27</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
         <v>53</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>31</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n">
         <v>76</v>
       </c>
-      <c r="E5" t="n">
-        <v>37</v>
-      </c>
       <c r="F5" t="n">
+        <v>37</v>
+      </c>
+      <c r="G5" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
         <v>75</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>43</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
         <v>42</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>28</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="n">
         <v>78</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>31</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="n">
         <v>106</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>50</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="n">
         <v>117</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>57</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>19</v>
       </c>
     </row>
@@ -5835,61 +6312,73 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5905,85 +6394,97 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>52</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>35</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>48</v>
       </c>
-      <c r="E3" t="n">
-        <v>37</v>
-      </c>
       <c r="F3" t="n">
+        <v>37</v>
+      </c>
+      <c r="G3" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
         <v>45</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>35</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>11</v>
       </c>
     </row>
@@ -5999,65 +6500,74 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>54</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>27</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>99</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>42</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6073,145 +6583,166 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>51</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>31</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>42</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>24</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
         <v>89</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>46</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n">
         <v>45</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>27</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
         <v>50</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>42</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
         <v>107</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>43</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>17</v>
       </c>
     </row>
@@ -6227,265 +6758,295 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>6.7</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6.4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>2.5</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>5.7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>3.1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.4</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9.5</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>1.9</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>6.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.3</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>4.4</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>7.6</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.4</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>2.5</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>4.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>6.5</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>7.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>10.5</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>5.5</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>11.3</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>9.6</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>8.2</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>1.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6501,109 +7062,121 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>8.2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>6.8</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>5.8</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>3.9</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6619,145 +7192,175 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
       <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="n">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.14</v>
       </c>
     </row>

--- a/analysis/Ramioul/derived_data/Ramioul_lithic_analysis.xlsx
+++ b/analysis/Ramioul/derived_data/Ramioul_lithic_analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -644,10 +644,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2648,10 +2648,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2730,10 +2730,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2795,10 +2795,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -2928,10 +2928,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3112,10 +3112,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3194,10 +3194,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3259,10 +3259,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3392,10 +3392,10 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3664,10 +3664,10 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3770,10 +3770,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -3984,10 +3984,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -4481,10 +4481,10 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -4575,10 +4575,10 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -4819,10 +4819,10 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -4925,10 +4925,10 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -5008,10 +5008,10 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -5183,10 +5183,10 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -5457,10 +5457,10 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -5575,10 +5575,10 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -5787,10 +5787,10 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -5879,10 +5879,10 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -6063,10 +6063,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -6307,10 +6307,10 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -6389,10 +6389,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -6495,10 +6495,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -6578,10 +6578,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -6753,10 +6753,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -7057,10 +7057,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -7187,10 +7187,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
